--- a/TIMES-NZ/SysSettings.xlsx
+++ b/TIMES-NZ/SysSettings.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greeda\git\TIMES-NZ-Model-Files\TIMES-NZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\TIMES-NZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E78621-0917-4637-9CE3-C11D9069C380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA7B195-F55A-49A4-94CD-F4E5788B9012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="-18120" windowWidth="29040" windowHeight="17520" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="22" r:id="rId1"/>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId2"/>
     <sheet name="TimePeriods" sheetId="18" r:id="rId3"/>
-    <sheet name="Import Settings" sheetId="17" r:id="rId4"/>
-    <sheet name="Interpol_Extrapol_Defaults" sheetId="14" r:id="rId5"/>
+    <sheet name="Interpol_Extrapol_Defaults" sheetId="14" r:id="rId4"/>
+    <sheet name="reporting options" sheetId="23" r:id="rId5"/>
     <sheet name="Constants" sheetId="20" r:id="rId6"/>
     <sheet name="Commodity Group" sheetId="15" r:id="rId7"/>
     <sheet name="Defaults" sheetId="21" r:id="rId8"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="206">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -218,27 +218,9 @@
     <t>Pset_PD</t>
   </si>
   <si>
-    <t>~ImpSettings</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Check #DIV/0 and #REF errors in Templates</t>
-  </si>
-  <si>
-    <t>Create Dummy Imports for Energy and Material Commodities</t>
-  </si>
-  <si>
-    <t>Create Dummy Imports for Demands</t>
-  </si>
-  <si>
-    <t>Generate Vintage Bounds</t>
-  </si>
-  <si>
     <t>~StartYear</t>
   </si>
   <si>
@@ -302,9 +284,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>DumVarforUC</t>
-  </si>
-  <si>
     <t>ACT_BND</t>
   </si>
   <si>
@@ -353,9 +332,6 @@
     <t>WE-</t>
   </si>
   <si>
-    <t>chkDoTAGSQC</t>
-  </si>
-  <si>
     <t>UP,LO</t>
   </si>
   <si>
@@ -642,6 +618,135 @@
   </si>
   <si>
     <t>Defaults: Default units</t>
+  </si>
+  <si>
+    <t>DeACT TFM_INS</t>
+  </si>
+  <si>
+    <t>~UnitConversion</t>
+  </si>
+  <si>
+    <t>from_unit</t>
+  </si>
+  <si>
+    <t>to_unit</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>QBtu</t>
+  </si>
+  <si>
+    <t>Billion Kwh</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>B$</t>
+  </si>
+  <si>
+    <t>m$</t>
+  </si>
+  <si>
+    <t>TBtu</t>
+  </si>
+  <si>
+    <t>ktoe</t>
+  </si>
+  <si>
+    <t>mtoe</t>
+  </si>
+  <si>
+    <t>Gwh</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>bEur</t>
+  </si>
+  <si>
+    <t>mEur</t>
+  </si>
+  <si>
+    <t>$/GJ</t>
+  </si>
+  <si>
+    <t>$/bbl</t>
+  </si>
+  <si>
+    <t>$/ton</t>
+  </si>
+  <si>
+    <t>m$/kt</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>bcm</t>
+  </si>
+  <si>
+    <t>mbpd</t>
+  </si>
+  <si>
+    <t>Cents per Kwh</t>
+  </si>
+  <si>
+    <t>$ per GJ</t>
+  </si>
+  <si>
+    <t>Twh</t>
+  </si>
+  <si>
+    <t>GWp</t>
+  </si>
+  <si>
+    <t>mt H2</t>
+  </si>
+  <si>
+    <t>mboe</t>
+  </si>
+  <si>
+    <t>mt LNG</t>
+  </si>
+  <si>
+    <t>RPT_OPT</t>
+  </si>
+  <si>
+    <t>ACT~2</t>
+  </si>
+  <si>
+    <t>NCAP~1</t>
+  </si>
+  <si>
+    <t>FLO~3</t>
+  </si>
+  <si>
+    <t>FLO~5</t>
+  </si>
+  <si>
+    <t>FLO~1</t>
+  </si>
+  <si>
+    <t>COMPRD~1</t>
+  </si>
+  <si>
+    <t>OBJ~1</t>
+  </si>
+  <si>
+    <t>ELC~1</t>
+  </si>
+  <si>
+    <t>ELC~3</t>
+  </si>
+  <si>
+    <t>COMPRD~4</t>
   </si>
 </sst>
 </file>
@@ -654,7 +759,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -890,12 +995,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1055,9 +1154,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1442,7 +1539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1736,32 +1833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="53"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="53"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="53"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="53"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="53"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1795,16 +1866,16 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1818,17 +1889,17 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1848,35 +1919,35 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1886,16 +1957,16 @@
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="62" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="62" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="62" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="62" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="63" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="63" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2117,7 +2188,7 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2182,28 +2253,28 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="65" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2211,37 +2282,37 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -2283,7 +2354,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -2291,14 +2362,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -2378,7 +2449,7 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="62" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="62" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11834,14 +11905,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -11852,12 +11923,12 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="419" applyFont="1"/>
@@ -11924,18 +11995,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="13" xfId="419" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="68" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="69" borderId="13" xfId="419" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="69" borderId="13" xfId="419" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="68" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -11943,8 +12003,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="68" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="13" xfId="419" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11957,6 +12017,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3853">
     <cellStyle name="20 % - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -15826,6 +15887,85 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03ABF599-B087-4F4F-8508-4EE4C16F2483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5295900" y="171450"/>
+          <a:ext cx="4724400" cy="5134112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -16250,50 +16390,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8D1A57-CDAE-4682-907E-2EE2CABFDB12}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -16305,9 +16443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="B7:C8"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16315,8 +16451,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>153</v>
+      <c r="A1" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -16348,50 +16484,50 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E7" s="23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E8" s="23" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -16409,9 +16545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16422,7 +16556,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -16432,12 +16566,12 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -16446,178 +16580,178 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>161</v>
+      <c r="B12" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>1</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>1</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>1</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>2</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>2</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>4</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>5</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>2</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>5</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>5</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>3</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>5</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>5</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>5</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <v>5</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>5</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>5</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>5</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>5</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>5</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>5</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>5</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>5</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>5</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>5</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>5</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>5</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>5</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>5</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="26">
         <v>5</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>5</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>5</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26">
         <v>5</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26">
         <v>1</v>
       </c>
     </row>
@@ -16630,95 +16764,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:C10"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16790,10 +16839,10 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="23"/>
       <c r="C5" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E5" s="23">
         <v>0</v>
@@ -16802,7 +16851,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -16815,10 +16864,10 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="23"/>
       <c r="C6" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18">
         <v>0</v>
@@ -16827,14 +16876,14 @@
         <v>3</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
@@ -16842,10 +16891,10 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="23"/>
       <c r="C7" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E7" s="18">
         <v>0</v>
@@ -16854,27 +16903,27 @@
         <v>3</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
@@ -16883,7 +16932,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -16895,13 +16944,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E9" s="18">
         <v>0</v>
@@ -16910,7 +16959,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -16923,10 +16972,10 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
       <c r="C10" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
@@ -16935,10 +16984,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
@@ -16954,7 +17003,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -16977,10 +17026,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>21</v>
@@ -17061,7 +17110,7 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
@@ -17084,10 +17133,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>21</v>
@@ -17117,10 +17166,10 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -17133,7 +17182,7 @@
         <v>15</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
@@ -17145,10 +17194,10 @@
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="23"/>
       <c r="C24" s="23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -17173,7 +17222,7 @@
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="23"/>
       <c r="D25" s="23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E25" s="23">
         <v>0</v>
@@ -17204,30 +17253,30 @@
       <c r="K26" s="23"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
+      <c r="B27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="B28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
@@ -17250,10 +17299,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>21</v>
@@ -17284,12 +17333,12 @@
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
@@ -17314,12 +17363,426 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB46F750-8F66-4D55-8C93-A00BEAD8BE1B}">
+  <dimension ref="B3:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>1055.55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>1.05555</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>4.1868000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>41.868000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>37.68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>2139.4548</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>31.536000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="36">
+        <v>5.8615199999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="36">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:K63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M24" sqref="L5:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17353,10 +17816,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>26</v>
@@ -17366,7 +17829,7 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" s="13">
         <v>2015</v>
@@ -17379,7 +17842,7 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" s="13">
         <v>0.05</v>
@@ -17390,11 +17853,11 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" s="9">
         <f>ROUND(K38,3)</f>
@@ -17406,11 +17869,11 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" ref="E9:E31" si="0">ROUND(K39,3)</f>
@@ -17422,11 +17885,11 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
@@ -17438,11 +17901,11 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
@@ -17454,11 +17917,11 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
@@ -17470,11 +17933,11 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
@@ -17486,11 +17949,11 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
@@ -17502,11 +17965,11 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
@@ -17518,11 +17981,11 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
@@ -17534,11 +17997,11 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
@@ -17550,11 +18013,11 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="0"/>
@@ -17566,11 +18029,11 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="0"/>
@@ -17582,11 +18045,11 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
@@ -17598,11 +18061,11 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
@@ -17614,11 +18077,11 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="0"/>
@@ -17630,11 +18093,11 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="0"/>
@@ -17646,11 +18109,11 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="0"/>
@@ -17662,11 +18125,11 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="0"/>
@@ -17678,11 +18141,11 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="0"/>
@@ -17694,11 +18157,11 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="0"/>
@@ -17710,11 +18173,11 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="0"/>
@@ -17726,11 +18189,11 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="0"/>
@@ -17742,11 +18205,11 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E30" s="9">
         <f>1-SUM(E8:E29,E31)</f>
@@ -17758,11 +18221,11 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="0"/>
@@ -17785,7 +18248,7 @@
       <c r="B33" s="13"/>
       <c r="C33" s="23"/>
       <c r="D33" s="13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12">
@@ -17795,10 +18258,10 @@
         <v>0.97</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -17806,14 +18269,14 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="14"/>
-      <c r="C37" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="C37" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
     </row>
@@ -17827,7 +18290,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K38" s="9">
         <f>H39*H45*G49</f>
@@ -17835,14 +18298,14 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="39" t="s">
-        <v>95</v>
+      <c r="B39" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G39" s="13">
         <v>90</v>
@@ -17853,7 +18316,7 @@
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K39" s="9">
         <f>H39*H45*H49</f>
@@ -17861,12 +18324,12 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="40"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G40" s="13">
         <v>92</v>
@@ -17877,7 +18340,7 @@
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K40" s="9">
         <f>H39*H45*I49</f>
@@ -17885,12 +18348,12 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="40"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
       <c r="F41" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G41" s="13">
         <v>92</v>
@@ -17901,7 +18364,7 @@
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K41" s="9">
         <f>H39*H46*G49</f>
@@ -17909,12 +18372,12 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="40"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G42" s="13">
         <v>91</v>
@@ -17925,7 +18388,7 @@
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K42" s="9">
         <f>H39*H46*H49</f>
@@ -17945,7 +18408,7 @@
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K43" s="9">
         <f>H39*H46*I49</f>
@@ -17962,7 +18425,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K44" s="9">
         <f>H40*H45*G50</f>
@@ -17970,14 +18433,14 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="39" t="s">
-        <v>96</v>
+      <c r="B45" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G45" s="13">
         <v>261</v>
@@ -17988,7 +18451,7 @@
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K45" s="9">
         <f>H40*H45*H50</f>
@@ -17996,12 +18459,12 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="40"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G46" s="13">
         <f>H43-G45</f>
@@ -18013,7 +18476,7 @@
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K46" s="9">
         <f>H40*H45*I50</f>
@@ -18030,7 +18493,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K47" s="9">
         <f>H40*H46*G50</f>
@@ -18040,26 +18503,26 @@
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K48" s="9">
         <f>H40*H46*H50</f>
@@ -18067,8 +18530,8 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="39" t="s">
-        <v>97</v>
+      <c r="B49" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="C49" s="13">
         <v>11</v>
@@ -18080,7 +18543,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" ref="G49:I52" si="1">C49/24</f>
@@ -18095,7 +18558,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K49" s="9">
         <f>H40*H46*I50</f>
@@ -18103,7 +18566,7 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="40"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="13">
         <v>11</v>
       </c>
@@ -18114,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="1"/>
@@ -18129,7 +18592,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K50" s="9">
         <f>H41*H45*G51</f>
@@ -18137,7 +18600,7 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="40"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="13">
         <v>11</v>
       </c>
@@ -18148,7 +18611,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G51" s="10">
         <f t="shared" si="1"/>
@@ -18163,7 +18626,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K51" s="9">
         <f>H41*H45*H51</f>
@@ -18171,7 +18634,7 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="40"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="13">
         <v>11</v>
       </c>
@@ -18182,7 +18645,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G52" s="10">
         <f t="shared" si="1"/>
@@ -18197,7 +18660,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K52" s="9">
         <f>H41*H45*I51</f>
@@ -18214,7 +18677,7 @@
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K53" s="9">
         <f>H41*H46*G51</f>
@@ -18231,7 +18694,7 @@
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
       <c r="J54" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K54" s="9">
         <f>H41*H46*H51</f>
@@ -18248,7 +18711,7 @@
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
       <c r="J55" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K55" s="9">
         <f>H41*H46*I51</f>
@@ -18257,7 +18720,7 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J56" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K56" s="9">
         <f>H42*H45*G52</f>
@@ -18266,7 +18729,7 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J57" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K57" s="9">
         <f>H42*H45*H52</f>
@@ -18275,7 +18738,7 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J58" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K58" s="9">
         <f>H42*H45*I52</f>
@@ -18284,7 +18747,7 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J59" s="13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K59" s="9">
         <f>H42*H46*G52</f>
@@ -18293,7 +18756,7 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J60" s="13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K60" s="9">
         <f>H42*H46*H52</f>
@@ -18302,7 +18765,7 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J61" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K61" s="9">
         <f>H42*H46*I52</f>
@@ -18311,7 +18774,7 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J63" s="22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K63" s="9">
         <f>SUM(K38:K61)</f>
@@ -18336,9 +18799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:I14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18354,7 +18815,7 @@
   <sheetData>
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18377,18 +18838,18 @@
         <v>1</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -18399,218 +18860,218 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -18626,9 +19087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18642,108 +19101,108 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="F5" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D6" s="23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
